--- a/Lyft_Analysis.xlsx
+++ b/Lyft_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Lyft Take</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Match Rate</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Annual Net Revenue</t>
         </is>
@@ -447,4001 +452,5501 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>-30.12000000000002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>-30.23999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>-30.36000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>-30.47999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>-30.60000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>-30.71999999999998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>-30.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>-30.95999999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>-31.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>-31.20000000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>-31.31999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>-31.44000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>-31.55999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
         <v>-31.68000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>-31.79999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
         <v>-31.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
         <v>-32.04000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>-32.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
         <v>-32.28000000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
         <v>-32.39999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
         <v>-32.52000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>-32.63999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>-32.76000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>-32.88000000000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
         <v>-33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>-33.12000000000002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
         <v>-33.23999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>-33.36000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
         <v>-33.47999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
         <v>-33.60000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
         <v>-33.71999999999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
         <v>-33.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
         <v>-33.96000000000002</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
         <v>-34.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
         <v>-34.20000000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
         <v>-34.31999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
         <v>-34.44000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
         <v>-34.55999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
         <v>-34.68000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
         <v>-34.79999999999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
         <v>-34.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
         <v>-35.04000000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
         <v>-35.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
         <v>-35.28000000000002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
         <v>-35.39999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>-35.52000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
         <v>-35.63999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>-35.76000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>-35.88000000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
         <v>-36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>1.51</v>
       </c>
       <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
         <v>-36.12000000000002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
         <v>-36.23999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
         <v>-36.36000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
         <v>-36.47999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
         <v>-36.60000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
         <v>-36.72000000000003</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>1.570000000000001</v>
       </c>
       <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
         <v>-36.84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>1.580000000000001</v>
       </c>
       <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
         <v>-36.96000000000002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>1.590000000000001</v>
       </c>
       <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
         <v>-37.08</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
         <v>-37.20000000000002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
         <v>-37.31999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
         <v>-37.44000000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>1.630000000000001</v>
       </c>
       <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
         <v>-37.55999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>1.640000000000001</v>
       </c>
       <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>-37.68000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>1.650000000000001</v>
       </c>
       <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
         <v>-37.80000000000003</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>1.660000000000001</v>
       </c>
       <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
         <v>-37.92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>1.670000000000001</v>
       </c>
       <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
         <v>-38.04000000000002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>-38.16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>1.690000000000001</v>
       </c>
       <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
         <v>-38.28000000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
         <v>-38.39999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
         <v>-38.52000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>1.720000000000001</v>
       </c>
       <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
         <v>-38.63999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>1.730000000000001</v>
       </c>
       <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
         <v>-38.76000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>1.740000000000001</v>
       </c>
       <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
         <v>-38.88000000000002</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
         <v>-39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>1.760000000000001</v>
       </c>
       <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
         <v>-39.12000000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>1.770000000000001</v>
       </c>
       <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
         <v>-39.23999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>1.780000000000001</v>
       </c>
       <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
         <v>-39.36000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
         <v>-39.47999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>-39.60000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>1.810000000000001</v>
       </c>
       <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
         <v>-39.72000000000003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>1.820000000000001</v>
       </c>
       <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
         <v>-39.84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>1.830000000000001</v>
       </c>
       <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
         <v>-39.96000000000002</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>1.840000000000001</v>
       </c>
       <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
         <v>-40.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>1.850000000000001</v>
       </c>
       <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
         <v>-40.20000000000002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>1.860000000000001</v>
       </c>
       <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
         <v>-40.31999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
         <v>-40.44000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>1.880000000000001</v>
       </c>
       <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
         <v>-40.56000000000003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
         <v>-40.68000000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>1.900000000000001</v>
       </c>
       <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
         <v>-40.80000000000003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>1.910000000000001</v>
       </c>
       <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
         <v>-40.92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>1.920000000000001</v>
       </c>
       <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
         <v>-41.04000000000002</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>1.930000000000001</v>
       </c>
       <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
         <v>-41.16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>1.940000000000001</v>
       </c>
       <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
         <v>-41.28000000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
         <v>-41.39999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>1.960000000000001</v>
       </c>
       <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
         <v>-41.52000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>1.970000000000001</v>
       </c>
       <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
         <v>-41.64000000000003</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>1.980000000000001</v>
       </c>
       <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
         <v>-41.76000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>1.990000000000001</v>
       </c>
       <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
         <v>-41.88000000000002</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
         <v>-42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2.010000000000001</v>
       </c>
       <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
         <v>-42.12000000000002</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2.020000000000001</v>
       </c>
       <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
         <v>-42.23999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2.030000000000001</v>
       </c>
       <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
         <v>-42.36000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2.040000000000001</v>
       </c>
       <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
         <v>-42.47999999999999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2.050000000000001</v>
       </c>
       <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
         <v>-42.60000000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2.060000000000001</v>
       </c>
       <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
         <v>-42.72000000000003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2.070000000000001</v>
       </c>
       <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
         <v>-42.84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2.080000000000001</v>
       </c>
       <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
         <v>-42.96000000000002</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>2.090000000000001</v>
       </c>
       <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
         <v>-43.08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
         <v>-43.20000000000002</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2.110000000000001</v>
       </c>
       <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
         <v>-43.31999999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
         <v>-43.44000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2.130000000000001</v>
       </c>
       <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
         <v>-43.56000000000003</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
         <v>-43.68000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>2.150000000000001</v>
       </c>
       <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
         <v>-43.80000000000003</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>2.160000000000001</v>
       </c>
       <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
         <v>-43.92</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>2.170000000000001</v>
       </c>
       <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
         <v>-44.04000000000002</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2.180000000000001</v>
       </c>
       <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
         <v>-44.16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2.190000000000001</v>
       </c>
       <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
         <v>-44.28000000000002</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
         <v>-44.40000000000003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
         <v>-44.52000000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>2.220000000000001</v>
       </c>
       <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
         <v>-44.64000000000003</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>2.230000000000001</v>
       </c>
       <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
         <v>-44.76000000000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2.240000000000001</v>
       </c>
       <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
         <v>-44.88000000000002</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>2.250000000000001</v>
       </c>
       <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
         <v>-45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2.260000000000001</v>
       </c>
       <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
         <v>-45.12000000000002</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>2.270000000000001</v>
       </c>
       <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
         <v>-45.24000000000004</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2.280000000000001</v>
       </c>
       <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
         <v>-45.36000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2.290000000000001</v>
       </c>
       <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
         <v>-45.47999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
         <v>-45.60000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>2.310000000000001</v>
       </c>
       <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
         <v>-45.72000000000003</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2.320000000000001</v>
       </c>
       <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
         <v>-45.84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2.330000000000001</v>
       </c>
       <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
         <v>-45.96000000000002</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>2.340000000000001</v>
       </c>
       <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
         <v>-46.08</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>2.350000000000001</v>
       </c>
       <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
         <v>-46.20000000000002</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2.360000000000001</v>
       </c>
       <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
         <v>-46.31999999999999</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
+        <v>2.370000000000001</v>
+      </c>
+      <c r="B138" t="n">
         <v>0.9993</v>
       </c>
-      <c r="B138" t="n">
+      <c r="C138" t="n">
         <v>-46.65907200000002</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
+        <v>2.380000000000001</v>
+      </c>
+      <c r="B139" t="n">
         <v>0.9982</v>
       </c>
-      <c r="B139" t="n">
+      <c r="C139" t="n">
         <v>-47.12311200000002</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
+        <v>2.390000000000001</v>
+      </c>
+      <c r="B140" t="n">
         <v>0.9970999999999999</v>
       </c>
-      <c r="B140" t="n">
+      <c r="C140" t="n">
         <v>-47.58688800000004</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
+        <v>2.400000000000001</v>
+      </c>
+      <c r="B141" t="n">
         <v>0.996</v>
       </c>
-      <c r="B141" t="n">
+      <c r="C141" t="n">
         <v>-48.05040000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
+        <v>2.410000000000001</v>
+      </c>
+      <c r="B142" t="n">
         <v>0.9948999999999999</v>
       </c>
-      <c r="B142" t="n">
+      <c r="C142" t="n">
         <v>-48.51364800000005</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
+        <v>2.420000000000001</v>
+      </c>
+      <c r="B143" t="n">
         <v>0.9938</v>
       </c>
-      <c r="B143" t="n">
+      <c r="C143" t="n">
         <v>-48.97663200000002</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>2.430000000000001</v>
+      </c>
+      <c r="B144" t="n">
         <v>0.9926999999999999</v>
       </c>
-      <c r="B144" t="n">
+      <c r="C144" t="n">
         <v>-49.43935200000003</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
+        <v>2.440000000000001</v>
+      </c>
+      <c r="B145" t="n">
         <v>0.9915999999999999</v>
       </c>
-      <c r="B145" t="n">
+      <c r="C145" t="n">
         <v>-49.90180800000006</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
+        <v>2.450000000000001</v>
+      </c>
+      <c r="B146" t="n">
         <v>0.9904999999999999</v>
       </c>
-      <c r="B146" t="n">
+      <c r="C146" t="n">
         <v>-50.36400000000008</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
+        <v>2.460000000000001</v>
+      </c>
+      <c r="B147" t="n">
         <v>0.9893999999999999</v>
       </c>
-      <c r="B147" t="n">
+      <c r="C147" t="n">
         <v>-50.82592800000003</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
+        <v>2.470000000000002</v>
+      </c>
+      <c r="B148" t="n">
         <v>0.9883</v>
       </c>
-      <c r="B148" t="n">
+      <c r="C148" t="n">
         <v>-51.28759200000006</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
+        <v>2.480000000000001</v>
+      </c>
+      <c r="B149" t="n">
         <v>0.9871999999999999</v>
       </c>
-      <c r="B149" t="n">
+      <c r="C149" t="n">
         <v>-51.74899200000007</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
+        <v>2.490000000000001</v>
+      </c>
+      <c r="B150" t="n">
         <v>0.9861</v>
       </c>
-      <c r="B150" t="n">
+      <c r="C150" t="n">
         <v>-52.21012800000007</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
+        <v>2.500000000000001</v>
+      </c>
+      <c r="B151" t="n">
         <v>0.9849999999999999</v>
       </c>
-      <c r="B151" t="n">
+      <c r="C151" t="n">
         <v>-52.67100000000005</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
+        <v>2.510000000000002</v>
+      </c>
+      <c r="B152" t="n">
         <v>0.9838999999999999</v>
       </c>
-      <c r="B152" t="n">
+      <c r="C152" t="n">
         <v>-53.13160800000006</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
+        <v>2.520000000000001</v>
+      </c>
+      <c r="B153" t="n">
         <v>0.9827999999999999</v>
       </c>
-      <c r="B153" t="n">
+      <c r="C153" t="n">
         <v>-53.59195200000005</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
+        <v>2.530000000000001</v>
+      </c>
+      <c r="B154" t="n">
         <v>0.9817</v>
       </c>
-      <c r="B154" t="n">
+      <c r="C154" t="n">
         <v>-54.05203199999998</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
+        <v>2.540000000000001</v>
+      </c>
+      <c r="B155" t="n">
         <v>0.9805999999999999</v>
       </c>
-      <c r="B155" t="n">
+      <c r="C155" t="n">
         <v>-54.51184800000003</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
+        <v>2.550000000000002</v>
+      </c>
+      <c r="B156" t="n">
         <v>0.9794999999999999</v>
       </c>
-      <c r="B156" t="n">
+      <c r="C156" t="n">
         <v>-54.97140000000002</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
+        <v>2.560000000000001</v>
+      </c>
+      <c r="B157" t="n">
         <v>0.9783999999999999</v>
       </c>
-      <c r="B157" t="n">
+      <c r="C157" t="n">
         <v>-55.43068800000003</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
+        <v>2.570000000000001</v>
+      </c>
+      <c r="B158" t="n">
         <v>0.9772999999999999</v>
       </c>
-      <c r="B158" t="n">
+      <c r="C158" t="n">
         <v>-55.88971200000003</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
+        <v>2.580000000000001</v>
+      </c>
+      <c r="B159" t="n">
         <v>0.9762</v>
       </c>
-      <c r="B159" t="n">
+      <c r="C159" t="n">
         <v>-56.34847200000002</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
+        <v>2.590000000000002</v>
+      </c>
+      <c r="B160" t="n">
         <v>0.9750999999999999</v>
       </c>
-      <c r="B160" t="n">
+      <c r="C160" t="n">
         <v>-56.80696800000007</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="B161" t="n">
         <v>0.974</v>
       </c>
-      <c r="B161" t="n">
+      <c r="C161" t="n">
         <v>-57.26520000000002</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
+        <v>2.610000000000001</v>
+      </c>
+      <c r="B162" t="n">
         <v>0.9728999999999999</v>
       </c>
-      <c r="B162" t="n">
+      <c r="C162" t="n">
         <v>-57.72316800000004</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
+        <v>2.620000000000001</v>
+      </c>
+      <c r="B163" t="n">
         <v>0.9718</v>
       </c>
-      <c r="B163" t="n">
+      <c r="C163" t="n">
         <v>-58.18087200000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>2.630000000000002</v>
+      </c>
+      <c r="B164" t="n">
         <v>0.9706999999999999</v>
       </c>
-      <c r="B164" t="n">
+      <c r="C164" t="n">
         <v>-58.63831200000008</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>2.640000000000001</v>
+      </c>
+      <c r="B165" t="n">
         <v>0.9695999999999999</v>
       </c>
-      <c r="B165" t="n">
+      <c r="C165" t="n">
         <v>-59.09548800000006</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
+        <v>2.650000000000001</v>
+      </c>
+      <c r="B166" t="n">
         <v>0.9684999999999999</v>
       </c>
-      <c r="B166" t="n">
+      <c r="C166" t="n">
         <v>-59.55240000000006</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
+        <v>2.660000000000001</v>
+      </c>
+      <c r="B167" t="n">
         <v>0.9673999999999999</v>
       </c>
-      <c r="B167" t="n">
+      <c r="C167" t="n">
         <v>-60.00904800000001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
+        <v>2.670000000000002</v>
+      </c>
+      <c r="B168" t="n">
         <v>0.9662999999999999</v>
       </c>
-      <c r="B168" t="n">
+      <c r="C168" t="n">
         <v>-60.46543200000002</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
+        <v>2.680000000000001</v>
+      </c>
+      <c r="B169" t="n">
         <v>0.9651999999999998</v>
       </c>
-      <c r="B169" t="n">
+      <c r="C169" t="n">
         <v>-60.92155200000006</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
+        <v>2.690000000000001</v>
+      </c>
+      <c r="B170" t="n">
         <v>0.9641</v>
       </c>
-      <c r="B170" t="n">
+      <c r="C170" t="n">
         <v>-61.377408</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
+        <v>2.700000000000002</v>
+      </c>
+      <c r="B171" t="n">
         <v>0.9629999999999999</v>
       </c>
-      <c r="B171" t="n">
+      <c r="C171" t="n">
         <v>-61.83300000000006</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
+        <v>2.710000000000002</v>
+      </c>
+      <c r="B172" t="n">
         <v>0.9618999999999999</v>
       </c>
-      <c r="B172" t="n">
+      <c r="C172" t="n">
         <v>-62.28832800000005</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
+        <v>2.720000000000002</v>
+      </c>
+      <c r="B173" t="n">
         <v>0.9607999999999999</v>
       </c>
-      <c r="B173" t="n">
+      <c r="C173" t="n">
         <v>-62.74339200000007</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
+        <v>2.730000000000001</v>
+      </c>
+      <c r="B174" t="n">
         <v>0.9597</v>
       </c>
-      <c r="B174" t="n">
+      <c r="C174" t="n">
         <v>-63.19819199999999</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
+        <v>2.740000000000002</v>
+      </c>
+      <c r="B175" t="n">
         <v>0.9585999999999999</v>
       </c>
-      <c r="B175" t="n">
+      <c r="C175" t="n">
         <v>-63.65272800000007</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
+        <v>2.750000000000002</v>
+      </c>
+      <c r="B176" t="n">
         <v>0.9574999999999998</v>
       </c>
-      <c r="B176" t="n">
+      <c r="C176" t="n">
         <v>-64.10700000000004</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
+        <v>2.760000000000002</v>
+      </c>
+      <c r="B177" t="n">
         <v>0.9563999999999999</v>
       </c>
-      <c r="B177" t="n">
+      <c r="C177" t="n">
         <v>-64.56100800000004</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
+        <v>2.770000000000001</v>
+      </c>
+      <c r="B178" t="n">
         <v>0.9552999999999999</v>
       </c>
-      <c r="B178" t="n">
+      <c r="C178" t="n">
         <v>-65.01475200000007</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
+        <v>2.780000000000002</v>
+      </c>
+      <c r="B179" t="n">
         <v>0.9541999999999999</v>
       </c>
-      <c r="B179" t="n">
+      <c r="C179" t="n">
         <v>-65.46823200000004</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
+        <v>2.790000000000002</v>
+      </c>
+      <c r="B180" t="n">
         <v>0.9530999999999998</v>
       </c>
-      <c r="B180" t="n">
+      <c r="C180" t="n">
         <v>-65.92144800000008</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
+        <v>2.800000000000002</v>
+      </c>
+      <c r="B181" t="n">
         <v>0.952</v>
       </c>
-      <c r="B181" t="n">
+      <c r="C181" t="n">
         <v>-66.37440000000002</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
+        <v>2.810000000000001</v>
+      </c>
+      <c r="B182" t="n">
         <v>0.9508999999999999</v>
       </c>
-      <c r="B182" t="n">
+      <c r="C182" t="n">
         <v>-66.82708800000007</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
+        <v>2.820000000000002</v>
+      </c>
+      <c r="B183" t="n">
         <v>0.9497999999999999</v>
       </c>
-      <c r="B183" t="n">
+      <c r="C183" t="n">
         <v>-67.27951200000007</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
+        <v>2.830000000000002</v>
+      </c>
+      <c r="B184" t="n">
         <v>0.9486999999999999</v>
       </c>
-      <c r="B184" t="n">
+      <c r="C184" t="n">
         <v>-67.73167200000009</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
+        <v>2.840000000000002</v>
+      </c>
+      <c r="B185" t="n">
         <v>0.9475999999999999</v>
       </c>
-      <c r="B185" t="n">
+      <c r="C185" t="n">
         <v>-68.18356800000009</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="B186" t="n">
         <v>0.9464999999999999</v>
       </c>
-      <c r="B186" t="n">
+      <c r="C186" t="n">
         <v>-68.63520000000004</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
+        <v>2.860000000000002</v>
+      </c>
+      <c r="B187" t="n">
         <v>0.9453999999999999</v>
       </c>
-      <c r="B187" t="n">
+      <c r="C187" t="n">
         <v>-69.08656800000006</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
+        <v>2.870000000000002</v>
+      </c>
+      <c r="B188" t="n">
         <v>0.9442999999999999</v>
       </c>
-      <c r="B188" t="n">
+      <c r="C188" t="n">
         <v>-69.53767200000001</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
+        <v>2.880000000000002</v>
+      </c>
+      <c r="B189" t="n">
         <v>0.9431999999999998</v>
       </c>
-      <c r="B189" t="n">
+      <c r="C189" t="n">
         <v>-69.98851200000009</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
+        <v>2.890000000000001</v>
+      </c>
+      <c r="B190" t="n">
         <v>0.9420999999999999</v>
       </c>
-      <c r="B190" t="n">
+      <c r="C190" t="n">
         <v>-70.43908800000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
+        <v>2.900000000000002</v>
+      </c>
+      <c r="B191" t="n">
         <v>0.9409999999999998</v>
       </c>
-      <c r="B191" t="n">
+      <c r="C191" t="n">
         <v>-70.88940000000005</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
+        <v>2.910000000000002</v>
+      </c>
+      <c r="B192" t="n">
         <v>0.9398999999999998</v>
       </c>
-      <c r="B192" t="n">
+      <c r="C192" t="n">
         <v>-71.33944800000008</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>2.920000000000002</v>
+      </c>
+      <c r="B193" t="n">
         <v>0.9387999999999999</v>
       </c>
-      <c r="B193" t="n">
+      <c r="C193" t="n">
         <v>-71.78923200000004</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
+        <v>2.930000000000001</v>
+      </c>
+      <c r="B194" t="n">
         <v>0.9377</v>
       </c>
-      <c r="B194" t="n">
+      <c r="C194" t="n">
         <v>-72.23875199999999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
+        <v>2.940000000000002</v>
+      </c>
+      <c r="B195" t="n">
         <v>0.9365999999999999</v>
       </c>
-      <c r="B195" t="n">
+      <c r="C195" t="n">
         <v>-72.68800800000005</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
+        <v>2.950000000000002</v>
+      </c>
+      <c r="B196" t="n">
         <v>0.9354999999999998</v>
       </c>
-      <c r="B196" t="n">
+      <c r="C196" t="n">
         <v>-73.1370000000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
+        <v>2.960000000000002</v>
+      </c>
+      <c r="B197" t="n">
         <v>0.9343999999999999</v>
       </c>
-      <c r="B197" t="n">
+      <c r="C197" t="n">
         <v>-73.58572800000005</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
+        <v>2.970000000000002</v>
+      </c>
+      <c r="B198" t="n">
         <v>0.9332999999999999</v>
       </c>
-      <c r="B198" t="n">
+      <c r="C198" t="n">
         <v>-74.03419200000006</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
+        <v>2.980000000000002</v>
+      </c>
+      <c r="B199" t="n">
         <v>0.9321999999999999</v>
       </c>
-      <c r="B199" t="n">
+      <c r="C199" t="n">
         <v>-74.48239200000006</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
+        <v>2.990000000000002</v>
+      </c>
+      <c r="B200" t="n">
         <v>0.9310999999999998</v>
       </c>
-      <c r="B200" t="n">
+      <c r="C200" t="n">
         <v>-74.93032800000009</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
+        <v>3.000000000000002</v>
+      </c>
+      <c r="B201" t="n">
         <v>0.9299999999999999</v>
       </c>
-      <c r="B201" t="n">
+      <c r="C201" t="n">
         <v>-75.37800000000001</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
+        <v>3.010000000000002</v>
+      </c>
+      <c r="B202" t="n">
         <v>0.9288999999999998</v>
       </c>
-      <c r="B202" t="n">
+      <c r="C202" t="n">
         <v>-75.8254080000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
+        <v>3.020000000000001</v>
+      </c>
+      <c r="B203" t="n">
         <v>0.9278</v>
       </c>
-      <c r="B203" t="n">
+      <c r="C203" t="n">
         <v>-76.27255200000003</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
+        <v>3.030000000000002</v>
+      </c>
+      <c r="B204" t="n">
         <v>0.9266999999999999</v>
       </c>
-      <c r="B204" t="n">
+      <c r="C204" t="n">
         <v>-76.71943200000004</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
+        <v>3.040000000000002</v>
+      </c>
+      <c r="B205" t="n">
         <v>0.9255999999999999</v>
       </c>
-      <c r="B205" t="n">
+      <c r="C205" t="n">
         <v>-77.16604800000007</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
+        <v>3.050000000000002</v>
+      </c>
+      <c r="B206" t="n">
         <v>0.9244999999999999</v>
       </c>
-      <c r="B206" t="n">
+      <c r="C206" t="n">
         <v>-77.61240000000005</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
+        <v>3.060000000000001</v>
+      </c>
+      <c r="B207" t="n">
         <v>0.9233999999999999</v>
       </c>
-      <c r="B207" t="n">
+      <c r="C207" t="n">
         <v>-78.05848800000005</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
+        <v>3.070000000000002</v>
+      </c>
+      <c r="B208" t="n">
         <v>0.9222999999999999</v>
       </c>
-      <c r="B208" t="n">
+      <c r="C208" t="n">
         <v>-78.50431200000004</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
+        <v>3.080000000000002</v>
+      </c>
+      <c r="B209" t="n">
         <v>0.9211999999999998</v>
       </c>
-      <c r="B209" t="n">
+      <c r="C209" t="n">
         <v>-78.94987200000006</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
+        <v>3.090000000000002</v>
+      </c>
+      <c r="B210" t="n">
         <v>0.9200999999999999</v>
       </c>
-      <c r="B210" t="n">
+      <c r="C210" t="n">
         <v>-79.39516800000006</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="B211" t="n">
         <v>0.9189999999999999</v>
       </c>
-      <c r="B211" t="n">
+      <c r="C211" t="n">
         <v>-79.84020000000004</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
+        <v>3.110000000000002</v>
+      </c>
+      <c r="B212" t="n">
         <v>0.9178999999999998</v>
       </c>
-      <c r="B212" t="n">
+      <c r="C212" t="n">
         <v>-80.28496800000009</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
+        <v>3.120000000000002</v>
+      </c>
+      <c r="B213" t="n">
         <v>0.9167999999999998</v>
       </c>
-      <c r="B213" t="n">
+      <c r="C213" t="n">
         <v>-80.72947200000009</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
+        <v>3.130000000000002</v>
+      </c>
+      <c r="B214" t="n">
         <v>0.9157</v>
       </c>
-      <c r="B214" t="n">
+      <c r="C214" t="n">
         <v>-81.17371200000007</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
+        <v>3.140000000000001</v>
+      </c>
+      <c r="B215" t="n">
         <v>0.9145999999999999</v>
       </c>
-      <c r="B215" t="n">
+      <c r="C215" t="n">
         <v>-81.61768800000007</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
+        <v>3.150000000000002</v>
+      </c>
+      <c r="B216" t="n">
         <v>0.9134999999999998</v>
       </c>
-      <c r="B216" t="n">
+      <c r="C216" t="n">
         <v>-82.06140000000011</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
+        <v>3.160000000000002</v>
+      </c>
+      <c r="B217" t="n">
         <v>0.9123999999999999</v>
       </c>
-      <c r="B217" t="n">
+      <c r="C217" t="n">
         <v>-82.50484800000008</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
+        <v>3.170000000000002</v>
+      </c>
+      <c r="B218" t="n">
         <v>0.9112999999999999</v>
       </c>
-      <c r="B218" t="n">
+      <c r="C218" t="n">
         <v>-82.94803200000008</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
+        <v>3.180000000000001</v>
+      </c>
+      <c r="B219" t="n">
         <v>0.9101999999999999</v>
       </c>
-      <c r="B219" t="n">
+      <c r="C219" t="n">
         <v>-83.39095200000003</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
+        <v>3.190000000000002</v>
+      </c>
+      <c r="B220" t="n">
         <v>0.9090999999999998</v>
       </c>
-      <c r="B220" t="n">
+      <c r="C220" t="n">
         <v>-83.83360800000008</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
+        <v>3.200000000000002</v>
+      </c>
+      <c r="B221" t="n">
         <v>0.9079999999999999</v>
       </c>
-      <c r="B221" t="n">
+      <c r="C221" t="n">
         <v>-84.27600000000004</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
+        <v>3.210000000000002</v>
+      </c>
+      <c r="B222" t="n">
         <v>0.9068999999999998</v>
       </c>
-      <c r="B222" t="n">
+      <c r="C222" t="n">
         <v>-84.71812800000006</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
+        <v>3.220000000000002</v>
+      </c>
+      <c r="B223" t="n">
         <v>0.9057999999999999</v>
       </c>
-      <c r="B223" t="n">
+      <c r="C223" t="n">
         <v>-85.15999200000003</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
+        <v>3.230000000000002</v>
+      </c>
+      <c r="B224" t="n">
         <v>0.9046999999999998</v>
       </c>
-      <c r="B224" t="n">
+      <c r="C224" t="n">
         <v>-85.60159200000007</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
+        <v>3.240000000000002</v>
+      </c>
+      <c r="B225" t="n">
         <v>0.9035999999999998</v>
       </c>
-      <c r="B225" t="n">
+      <c r="C225" t="n">
         <v>-86.04292800000005</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
+        <v>3.250000000000002</v>
+      </c>
+      <c r="B226" t="n">
         <v>0.9024999999999999</v>
       </c>
-      <c r="B226" t="n">
+      <c r="C226" t="n">
         <v>-86.48400000000005</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
+        <v>3.260000000000002</v>
+      </c>
+      <c r="B227" t="n">
         <v>0.9013999999999999</v>
       </c>
-      <c r="B227" t="n">
+      <c r="C227" t="n">
         <v>-86.92480800000004</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
+        <v>3.270000000000002</v>
+      </c>
+      <c r="B228" t="n">
         <v>0.9002999999999999</v>
       </c>
-      <c r="B228" t="n">
+      <c r="C228" t="n">
         <v>-87.36535200000006</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
+        <v>3.280000000000002</v>
+      </c>
+      <c r="B229" t="n">
         <v>0.8991999999999998</v>
       </c>
-      <c r="B229" t="n">
+      <c r="C229" t="n">
         <v>-87.8056320000001</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
+        <v>3.290000000000002</v>
+      </c>
+      <c r="B230" t="n">
         <v>0.8980999999999999</v>
       </c>
-      <c r="B230" t="n">
+      <c r="C230" t="n">
         <v>-88.24564800000009</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
+        <v>3.300000000000002</v>
+      </c>
+      <c r="B231" t="n">
         <v>0.8969999999999998</v>
       </c>
-      <c r="B231" t="n">
+      <c r="C231" t="n">
         <v>-88.68540000000006</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
+        <v>3.310000000000002</v>
+      </c>
+      <c r="B232" t="n">
         <v>0.8958999999999998</v>
       </c>
-      <c r="B232" t="n">
+      <c r="C232" t="n">
         <v>-89.1248880000001</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
+        <v>3.320000000000002</v>
+      </c>
+      <c r="B233" t="n">
         <v>0.8947999999999998</v>
       </c>
-      <c r="B233" t="n">
+      <c r="C233" t="n">
         <v>-89.56411200000008</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
+        <v>3.330000000000002</v>
+      </c>
+      <c r="B234" t="n">
         <v>0.8936999999999998</v>
       </c>
-      <c r="B234" t="n">
+      <c r="C234" t="n">
         <v>-90.00307200000009</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
+        <v>3.340000000000002</v>
+      </c>
+      <c r="B235" t="n">
         <v>0.8925999999999998</v>
       </c>
-      <c r="B235" t="n">
+      <c r="C235" t="n">
         <v>-90.44176800000012</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
+        <v>3.350000000000002</v>
+      </c>
+      <c r="B236" t="n">
         <v>0.8914999999999997</v>
       </c>
-      <c r="B236" t="n">
+      <c r="C236" t="n">
         <v>-90.8802000000001</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>3.360000000000002</v>
+      </c>
+      <c r="B237" t="n">
         <v>0.8903999999999999</v>
       </c>
-      <c r="B237" t="n">
+      <c r="C237" t="n">
         <v>-91.31836800000006</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
+        <v>3.370000000000002</v>
+      </c>
+      <c r="B238" t="n">
         <v>0.8892999999999999</v>
       </c>
-      <c r="B238" t="n">
+      <c r="C238" t="n">
         <v>-91.75627200000005</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
+        <v>3.380000000000002</v>
+      </c>
+      <c r="B239" t="n">
         <v>0.8881999999999999</v>
       </c>
-      <c r="B239" t="n">
+      <c r="C239" t="n">
         <v>-92.19391200000007</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
+        <v>3.390000000000002</v>
+      </c>
+      <c r="B240" t="n">
         <v>0.8870999999999998</v>
       </c>
-      <c r="B240" t="n">
+      <c r="C240" t="n">
         <v>-92.63128800000007</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
+        <v>3.400000000000002</v>
+      </c>
+      <c r="B241" t="n">
         <v>0.8859999999999999</v>
       </c>
-      <c r="B241" t="n">
+      <c r="C241" t="n">
         <v>-93.06840000000005</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
+        <v>3.410000000000002</v>
+      </c>
+      <c r="B242" t="n">
         <v>0.8848999999999998</v>
       </c>
-      <c r="B242" t="n">
+      <c r="C242" t="n">
         <v>-93.50524800000011</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
+        <v>3.420000000000002</v>
+      </c>
+      <c r="B243" t="n">
         <v>0.8837999999999999</v>
       </c>
-      <c r="B243" t="n">
+      <c r="C243" t="n">
         <v>-93.94183200000006</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
+        <v>3.430000000000002</v>
+      </c>
+      <c r="B244" t="n">
         <v>0.8826999999999998</v>
       </c>
-      <c r="B244" t="n">
+      <c r="C244" t="n">
         <v>-94.37815200000009</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
+        <v>3.440000000000002</v>
+      </c>
+      <c r="B245" t="n">
         <v>0.8815999999999998</v>
       </c>
-      <c r="B245" t="n">
+      <c r="C245" t="n">
         <v>-94.81420800000005</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
+        <v>3.450000000000002</v>
+      </c>
+      <c r="B246" t="n">
         <v>0.8804999999999998</v>
       </c>
-      <c r="B246" t="n">
+      <c r="C246" t="n">
         <v>-95.25000000000009</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
+        <v>3.460000000000002</v>
+      </c>
+      <c r="B247" t="n">
         <v>0.8793999999999998</v>
       </c>
-      <c r="B247" t="n">
+      <c r="C247" t="n">
         <v>-95.68552800000006</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
+        <v>3.470000000000002</v>
+      </c>
+      <c r="B248" t="n">
         <v>0.8782999999999999</v>
       </c>
-      <c r="B248" t="n">
+      <c r="C248" t="n">
         <v>-96.12079200000007</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
+        <v>3.480000000000002</v>
+      </c>
+      <c r="B249" t="n">
         <v>0.8771999999999998</v>
       </c>
-      <c r="B249" t="n">
+      <c r="C249" t="n">
         <v>-96.55579200000014</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
+        <v>3.490000000000002</v>
+      </c>
+      <c r="B250" t="n">
         <v>0.8760999999999999</v>
       </c>
-      <c r="B250" t="n">
+      <c r="C250" t="n">
         <v>-96.99052800000007</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
+        <v>3.500000000000002</v>
+      </c>
+      <c r="B251" t="n">
         <v>0.8749999999999998</v>
       </c>
-      <c r="B251" t="n">
+      <c r="C251" t="n">
         <v>-97.42500000000007</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
+        <v>3.510000000000002</v>
+      </c>
+      <c r="B252" t="n">
         <v>0.8738999999999998</v>
       </c>
-      <c r="B252" t="n">
+      <c r="C252" t="n">
         <v>-97.85920800000009</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
+        <v>3.520000000000002</v>
+      </c>
+      <c r="B253" t="n">
         <v>0.8727999999999998</v>
       </c>
-      <c r="B253" t="n">
+      <c r="C253" t="n">
         <v>-98.29315200000006</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
+        <v>3.530000000000002</v>
+      </c>
+      <c r="B254" t="n">
         <v>0.8716999999999998</v>
       </c>
-      <c r="B254" t="n">
+      <c r="C254" t="n">
         <v>-98.72683200000006</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
+        <v>3.540000000000002</v>
+      </c>
+      <c r="B255" t="n">
         <v>0.8705999999999998</v>
       </c>
-      <c r="B255" t="n">
+      <c r="C255" t="n">
         <v>-99.16024800000008</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
+        <v>3.550000000000002</v>
+      </c>
+      <c r="B256" t="n">
         <v>0.8694999999999997</v>
       </c>
-      <c r="B256" t="n">
+      <c r="C256" t="n">
         <v>-99.59340000000013</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
+        <v>3.560000000000002</v>
+      </c>
+      <c r="B257" t="n">
         <v>0.8683999999999998</v>
       </c>
-      <c r="B257" t="n">
+      <c r="C257" t="n">
         <v>-100.0262880000001</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
+        <v>3.570000000000002</v>
+      </c>
+      <c r="B258" t="n">
         <v>0.8672999999999997</v>
       </c>
-      <c r="B258" t="n">
+      <c r="C258" t="n">
         <v>-100.4589120000001</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
+        <v>3.580000000000002</v>
+      </c>
+      <c r="B259" t="n">
         <v>0.8661999999999999</v>
       </c>
-      <c r="B259" t="n">
+      <c r="C259" t="n">
         <v>-100.8912720000001</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
+        <v>3.590000000000003</v>
+      </c>
+      <c r="B260" t="n">
         <v>0.8650999999999998</v>
       </c>
-      <c r="B260" t="n">
+      <c r="C260" t="n">
         <v>-101.3233680000001</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
+        <v>3.600000000000002</v>
+      </c>
+      <c r="B261" t="n">
         <v>0.8639999999999998</v>
       </c>
-      <c r="B261" t="n">
+      <c r="C261" t="n">
         <v>-101.7552000000001</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
+        <v>3.610000000000002</v>
+      </c>
+      <c r="B262" t="n">
         <v>0.8628999999999998</v>
       </c>
-      <c r="B262" t="n">
+      <c r="C262" t="n">
         <v>-102.1867680000001</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
+        <v>3.620000000000002</v>
+      </c>
+      <c r="B263" t="n">
         <v>0.8617999999999999</v>
       </c>
-      <c r="B263" t="n">
+      <c r="C263" t="n">
         <v>-102.618072</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
+        <v>3.630000000000003</v>
+      </c>
+      <c r="B264" t="n">
         <v>0.8606999999999998</v>
       </c>
-      <c r="B264" t="n">
+      <c r="C264" t="n">
         <v>-103.0491120000001</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
+        <v>3.640000000000002</v>
+      </c>
+      <c r="B265" t="n">
         <v>0.8595999999999998</v>
       </c>
-      <c r="B265" t="n">
+      <c r="C265" t="n">
         <v>-103.4798880000001</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
+        <v>3.650000000000002</v>
+      </c>
+      <c r="B266" t="n">
         <v>0.8584999999999998</v>
       </c>
-      <c r="B266" t="n">
+      <c r="C266" t="n">
         <v>-103.9104000000001</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
+        <v>3.660000000000002</v>
+      </c>
+      <c r="B267" t="n">
         <v>0.8573999999999998</v>
       </c>
-      <c r="B267" t="n">
+      <c r="C267" t="n">
         <v>-104.3406480000001</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
+        <v>3.670000000000003</v>
+      </c>
+      <c r="B268" t="n">
         <v>0.8562999999999998</v>
       </c>
-      <c r="B268" t="n">
+      <c r="C268" t="n">
         <v>-104.7706320000001</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
+        <v>3.680000000000002</v>
+      </c>
+      <c r="B269" t="n">
         <v>0.8551999999999997</v>
       </c>
-      <c r="B269" t="n">
+      <c r="C269" t="n">
         <v>-105.2003520000001</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
+        <v>3.690000000000002</v>
+      </c>
+      <c r="B270" t="n">
         <v>0.8540999999999999</v>
       </c>
-      <c r="B270" t="n">
+      <c r="C270" t="n">
         <v>-105.629808</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
+        <v>3.700000000000002</v>
+      </c>
+      <c r="B271" t="n">
         <v>0.8529999999999998</v>
       </c>
-      <c r="B271" t="n">
+      <c r="C271" t="n">
         <v>-106.0590000000001</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
+        <v>3.710000000000003</v>
+      </c>
+      <c r="B272" t="n">
         <v>0.8518999999999998</v>
       </c>
-      <c r="B272" t="n">
+      <c r="C272" t="n">
         <v>-106.4879280000001</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
+        <v>3.720000000000002</v>
+      </c>
+      <c r="B273" t="n">
         <v>0.8507999999999998</v>
       </c>
-      <c r="B273" t="n">
+      <c r="C273" t="n">
         <v>-106.9165920000001</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
+        <v>3.730000000000002</v>
+      </c>
+      <c r="B274" t="n">
         <v>0.8496999999999998</v>
       </c>
-      <c r="B274" t="n">
+      <c r="C274" t="n">
         <v>-107.3449920000001</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
+        <v>3.740000000000002</v>
+      </c>
+      <c r="B275" t="n">
         <v>0.8485999999999998</v>
       </c>
-      <c r="B275" t="n">
+      <c r="C275" t="n">
         <v>-107.7731280000001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
+        <v>3.750000000000003</v>
+      </c>
+      <c r="B276" t="n">
         <v>0.8474999999999997</v>
       </c>
-      <c r="B276" t="n">
+      <c r="C276" t="n">
         <v>-108.2010000000001</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
+        <v>3.760000000000002</v>
+      </c>
+      <c r="B277" t="n">
         <v>0.8463999999999998</v>
       </c>
-      <c r="B277" t="n">
+      <c r="C277" t="n">
         <v>-108.6286080000001</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
+        <v>3.770000000000002</v>
+      </c>
+      <c r="B278" t="n">
         <v>0.8452999999999998</v>
       </c>
-      <c r="B278" t="n">
+      <c r="C278" t="n">
         <v>-109.0559520000001</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
+        <v>3.780000000000002</v>
+      </c>
+      <c r="B279" t="n">
         <v>0.8441999999999998</v>
       </c>
-      <c r="B279" t="n">
+      <c r="C279" t="n">
         <v>-109.4830320000001</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
+        <v>3.790000000000003</v>
+      </c>
+      <c r="B280" t="n">
         <v>0.8430999999999997</v>
       </c>
-      <c r="B280" t="n">
+      <c r="C280" t="n">
         <v>-109.9098480000001</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
+        <v>3.800000000000002</v>
+      </c>
+      <c r="B281" t="n">
         <v>0.8419999999999997</v>
       </c>
-      <c r="B281" t="n">
+      <c r="C281" t="n">
         <v>-110.3364000000001</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
+        <v>3.810000000000002</v>
+      </c>
+      <c r="B282" t="n">
         <v>0.8408999999999998</v>
       </c>
-      <c r="B282" t="n">
+      <c r="C282" t="n">
         <v>-110.7626880000001</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
+        <v>3.820000000000002</v>
+      </c>
+      <c r="B283" t="n">
         <v>0.8397999999999999</v>
       </c>
-      <c r="B283" t="n">
+      <c r="C283" t="n">
         <v>-111.188712</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
+        <v>3.830000000000003</v>
+      </c>
+      <c r="B284" t="n">
         <v>0.8386999999999998</v>
       </c>
-      <c r="B284" t="n">
+      <c r="C284" t="n">
         <v>-111.6144720000001</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
+        <v>3.840000000000003</v>
+      </c>
+      <c r="B285" t="n">
         <v>0.8375999999999998</v>
       </c>
-      <c r="B285" t="n">
+      <c r="C285" t="n">
         <v>-112.0399680000001</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
+        <v>3.850000000000002</v>
+      </c>
+      <c r="B286" t="n">
         <v>0.8364999999999998</v>
       </c>
-      <c r="B286" t="n">
+      <c r="C286" t="n">
         <v>-112.4652000000001</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
+        <v>3.860000000000002</v>
+      </c>
+      <c r="B287" t="n">
         <v>0.8353999999999998</v>
       </c>
-      <c r="B287" t="n">
+      <c r="C287" t="n">
         <v>-112.8901680000001</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
+        <v>3.870000000000003</v>
+      </c>
+      <c r="B288" t="n">
         <v>0.8342999999999997</v>
       </c>
-      <c r="B288" t="n">
+      <c r="C288" t="n">
         <v>-113.3148720000001</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
+        <v>3.880000000000003</v>
+      </c>
+      <c r="B289" t="n">
         <v>0.8331999999999997</v>
       </c>
-      <c r="B289" t="n">
+      <c r="C289" t="n">
         <v>-113.7393120000001</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
+        <v>3.890000000000002</v>
+      </c>
+      <c r="B290" t="n">
         <v>0.8320999999999998</v>
       </c>
-      <c r="B290" t="n">
+      <c r="C290" t="n">
         <v>-114.163488</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
+        <v>3.900000000000002</v>
+      </c>
+      <c r="B291" t="n">
         <v>0.8309999999999997</v>
       </c>
-      <c r="B291" t="n">
+      <c r="C291" t="n">
         <v>-114.5874000000001</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
+        <v>3.910000000000003</v>
+      </c>
+      <c r="B292" t="n">
         <v>0.8298999999999997</v>
       </c>
-      <c r="B292" t="n">
+      <c r="C292" t="n">
         <v>-115.0110480000001</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
+        <v>3.920000000000003</v>
+      </c>
+      <c r="B293" t="n">
         <v>0.8287999999999998</v>
       </c>
-      <c r="B293" t="n">
+      <c r="C293" t="n">
         <v>-115.4344320000001</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
+        <v>3.930000000000002</v>
+      </c>
+      <c r="B294" t="n">
         <v>0.8276999999999998</v>
       </c>
-      <c r="B294" t="n">
+      <c r="C294" t="n">
         <v>-115.8575520000001</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
+        <v>3.940000000000002</v>
+      </c>
+      <c r="B295" t="n">
         <v>0.8265999999999998</v>
       </c>
-      <c r="B295" t="n">
+      <c r="C295" t="n">
         <v>-116.2804080000001</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
+        <v>3.950000000000003</v>
+      </c>
+      <c r="B296" t="n">
         <v>0.8254999999999997</v>
       </c>
-      <c r="B296" t="n">
+      <c r="C296" t="n">
         <v>-116.7030000000001</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
+        <v>3.960000000000003</v>
+      </c>
+      <c r="B297" t="n">
         <v>0.8243999999999998</v>
       </c>
-      <c r="B297" t="n">
+      <c r="C297" t="n">
         <v>-117.1253280000001</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
+        <v>3.970000000000002</v>
+      </c>
+      <c r="B298" t="n">
         <v>0.8232999999999998</v>
       </c>
-      <c r="B298" t="n">
+      <c r="C298" t="n">
         <v>-117.5473920000001</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
+        <v>3.980000000000002</v>
+      </c>
+      <c r="B299" t="n">
         <v>0.8221999999999998</v>
       </c>
-      <c r="B299" t="n">
+      <c r="C299" t="n">
         <v>-117.9691920000001</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
+        <v>3.990000000000003</v>
+      </c>
+      <c r="B300" t="n">
         <v>0.8210999999999997</v>
       </c>
-      <c r="B300" t="n">
+      <c r="C300" t="n">
         <v>-118.3907280000001</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
+        <v>4.000000000000003</v>
+      </c>
+      <c r="B301" t="n">
         <v>0.8199999999999997</v>
       </c>
-      <c r="B301" t="n">
+      <c r="C301" t="n">
         <v>-118.8120000000001</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
+        <v>4.010000000000002</v>
+      </c>
+      <c r="B302" t="n">
         <v>0.8188999999999997</v>
       </c>
-      <c r="B302" t="n">
+      <c r="C302" t="n">
         <v>-119.2330080000001</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
+        <v>4.020000000000002</v>
+      </c>
+      <c r="B303" t="n">
         <v>0.8177999999999997</v>
       </c>
-      <c r="B303" t="n">
+      <c r="C303" t="n">
         <v>-119.6537520000001</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
+        <v>4.030000000000003</v>
+      </c>
+      <c r="B304" t="n">
         <v>0.8166999999999998</v>
       </c>
-      <c r="B304" t="n">
+      <c r="C304" t="n">
         <v>-120.0742320000001</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
+        <v>4.040000000000003</v>
+      </c>
+      <c r="B305" t="n">
         <v>0.8155999999999998</v>
       </c>
-      <c r="B305" t="n">
+      <c r="C305" t="n">
         <v>-120.4944480000001</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
+        <v>4.050000000000002</v>
+      </c>
+      <c r="B306" t="n">
         <v>0.8144999999999998</v>
       </c>
-      <c r="B306" t="n">
+      <c r="C306" t="n">
         <v>-120.9144000000001</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
+        <v>4.060000000000002</v>
+      </c>
+      <c r="B307" t="n">
         <v>0.8133999999999998</v>
       </c>
-      <c r="B307" t="n">
+      <c r="C307" t="n">
         <v>-121.3340880000001</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
+        <v>4.070000000000003</v>
+      </c>
+      <c r="B308" t="n">
         <v>0.8122999999999997</v>
       </c>
-      <c r="B308" t="n">
+      <c r="C308" t="n">
         <v>-121.7535120000001</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
+        <v>4.080000000000003</v>
+      </c>
+      <c r="B309" t="n">
         <v>0.8111999999999997</v>
       </c>
-      <c r="B309" t="n">
+      <c r="C309" t="n">
         <v>-122.1726720000001</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
+        <v>4.090000000000003</v>
+      </c>
+      <c r="B310" t="n">
         <v>0.8100999999999998</v>
       </c>
-      <c r="B310" t="n">
+      <c r="C310" t="n">
         <v>-122.5915680000001</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
+        <v>4.100000000000002</v>
+      </c>
+      <c r="B311" t="n">
         <v>0.8089999999999997</v>
       </c>
-      <c r="B311" t="n">
+      <c r="C311" t="n">
         <v>-123.0102000000001</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
+        <v>4.110000000000003</v>
+      </c>
+      <c r="B312" t="n">
         <v>0.8078999999999997</v>
       </c>
-      <c r="B312" t="n">
+      <c r="C312" t="n">
         <v>-123.4285680000001</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
+        <v>4.120000000000003</v>
+      </c>
+      <c r="B313" t="n">
         <v>0.8067999999999997</v>
       </c>
-      <c r="B313" t="n">
+      <c r="C313" t="n">
         <v>-123.8466720000001</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
+        <v>4.130000000000003</v>
+      </c>
+      <c r="B314" t="n">
         <v>0.8056999999999997</v>
       </c>
-      <c r="B314" t="n">
+      <c r="C314" t="n">
         <v>-124.2645120000001</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
+        <v>4.140000000000002</v>
+      </c>
+      <c r="B315" t="n">
         <v>0.8045999999999998</v>
       </c>
-      <c r="B315" t="n">
+      <c r="C315" t="n">
         <v>-124.6820880000001</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
+        <v>4.150000000000003</v>
+      </c>
+      <c r="B316" t="n">
         <v>0.8034999999999997</v>
       </c>
-      <c r="B316" t="n">
+      <c r="C316" t="n">
         <v>-125.0994000000001</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
+        <v>4.160000000000003</v>
+      </c>
+      <c r="B317" t="n">
         <v>0.8023999999999998</v>
       </c>
-      <c r="B317" t="n">
+      <c r="C317" t="n">
         <v>-125.5164480000001</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
+        <v>4.170000000000003</v>
+      </c>
+      <c r="B318" t="n">
         <v>0.8012999999999997</v>
       </c>
-      <c r="B318" t="n">
+      <c r="C318" t="n">
         <v>-125.9332320000001</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
+        <v>4.180000000000002</v>
+      </c>
+      <c r="B319" t="n">
         <v>0.8001999999999998</v>
       </c>
-      <c r="B319" t="n">
+      <c r="C319" t="n">
         <v>-126.3497520000001</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
+        <v>4.190000000000003</v>
+      </c>
+      <c r="B320" t="n">
         <v>0.7990999999999997</v>
       </c>
-      <c r="B320" t="n">
+      <c r="C320" t="n">
         <v>-126.7660080000001</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="B321" t="n">
         <v>0.7979999999999997</v>
       </c>
-      <c r="B321" t="n">
+      <c r="C321" t="n">
         <v>-127.1820000000001</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
+        <v>4.210000000000003</v>
+      </c>
+      <c r="B322" t="n">
         <v>0.7968999999999997</v>
       </c>
-      <c r="B322" t="n">
+      <c r="C322" t="n">
         <v>-127.5977280000001</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
+        <v>4.220000000000002</v>
+      </c>
+      <c r="B323" t="n">
         <v>0.7957999999999997</v>
       </c>
-      <c r="B323" t="n">
+      <c r="C323" t="n">
         <v>-128.0131920000001</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
+        <v>4.230000000000003</v>
+      </c>
+      <c r="B324" t="n">
         <v>0.7946999999999997</v>
       </c>
-      <c r="B324" t="n">
+      <c r="C324" t="n">
         <v>-128.4283920000001</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
+        <v>4.240000000000003</v>
+      </c>
+      <c r="B325" t="n">
         <v>0.7935999999999998</v>
       </c>
-      <c r="B325" t="n">
+      <c r="C325" t="n">
         <v>-128.8433280000001</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
+        <v>4.250000000000003</v>
+      </c>
+      <c r="B326" t="n">
         <v>0.7924999999999998</v>
       </c>
-      <c r="B326" t="n">
+      <c r="C326" t="n">
         <v>-129.2580000000001</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
+        <v>4.260000000000002</v>
+      </c>
+      <c r="B327" t="n">
         <v>0.7913999999999998</v>
       </c>
-      <c r="B327" t="n">
+      <c r="C327" t="n">
         <v>-129.6724080000001</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
+        <v>4.270000000000003</v>
+      </c>
+      <c r="B328" t="n">
         <v>0.7902999999999997</v>
       </c>
-      <c r="B328" t="n">
+      <c r="C328" t="n">
         <v>-130.0865520000001</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
+        <v>4.280000000000003</v>
+      </c>
+      <c r="B329" t="n">
         <v>0.7891999999999997</v>
       </c>
-      <c r="B329" t="n">
+      <c r="C329" t="n">
         <v>-130.5004320000001</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
+        <v>4.290000000000003</v>
+      </c>
+      <c r="B330" t="n">
         <v>0.7880999999999997</v>
       </c>
-      <c r="B330" t="n">
+      <c r="C330" t="n">
         <v>-130.9140480000001</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
+        <v>4.300000000000002</v>
+      </c>
+      <c r="B331" t="n">
         <v>0.7869999999999997</v>
       </c>
-      <c r="B331" t="n">
+      <c r="C331" t="n">
         <v>-131.3274000000001</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
+        <v>4.310000000000003</v>
+      </c>
+      <c r="B332" t="n">
         <v>0.7858999999999997</v>
       </c>
-      <c r="B332" t="n">
+      <c r="C332" t="n">
         <v>-131.7404880000001</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
+        <v>4.320000000000003</v>
+      </c>
+      <c r="B333" t="n">
         <v>0.7847999999999997</v>
       </c>
-      <c r="B333" t="n">
+      <c r="C333" t="n">
         <v>-132.1533120000001</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
+        <v>4.330000000000003</v>
+      </c>
+      <c r="B334" t="n">
         <v>0.7836999999999997</v>
       </c>
-      <c r="B334" t="n">
+      <c r="C334" t="n">
         <v>-132.5658720000001</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
+        <v>4.340000000000003</v>
+      </c>
+      <c r="B335" t="n">
         <v>0.7825999999999997</v>
       </c>
-      <c r="B335" t="n">
+      <c r="C335" t="n">
         <v>-132.9781680000001</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
+        <v>4.350000000000003</v>
+      </c>
+      <c r="B336" t="n">
         <v>0.7814999999999996</v>
       </c>
-      <c r="B336" t="n">
+      <c r="C336" t="n">
         <v>-133.3902000000001</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
+        <v>4.360000000000003</v>
+      </c>
+      <c r="B337" t="n">
         <v>0.7803999999999998</v>
       </c>
-      <c r="B337" t="n">
+      <c r="C337" t="n">
         <v>-133.8019680000001</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
+        <v>4.370000000000003</v>
+      </c>
+      <c r="B338" t="n">
         <v>0.7792999999999997</v>
       </c>
-      <c r="B338" t="n">
+      <c r="C338" t="n">
         <v>-134.2134720000002</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
+        <v>4.380000000000003</v>
+      </c>
+      <c r="B339" t="n">
         <v>0.7781999999999998</v>
       </c>
-      <c r="B339" t="n">
+      <c r="C339" t="n">
         <v>-134.6247120000001</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
+        <v>4.390000000000003</v>
+      </c>
+      <c r="B340" t="n">
         <v>0.7770999999999997</v>
       </c>
-      <c r="B340" t="n">
+      <c r="C340" t="n">
         <v>-135.0356880000001</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
+        <v>4.400000000000003</v>
+      </c>
+      <c r="B341" t="n">
         <v>0.7759999999999997</v>
       </c>
-      <c r="B341" t="n">
+      <c r="C341" t="n">
         <v>-135.4464000000001</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
+        <v>4.410000000000003</v>
+      </c>
+      <c r="B342" t="n">
         <v>0.7748999999999997</v>
       </c>
-      <c r="B342" t="n">
+      <c r="C342" t="n">
         <v>-135.8568480000001</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
+        <v>4.420000000000003</v>
+      </c>
+      <c r="B343" t="n">
         <v>0.7737999999999997</v>
       </c>
-      <c r="B343" t="n">
+      <c r="C343" t="n">
         <v>-136.2670320000001</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
+        <v>4.430000000000003</v>
+      </c>
+      <c r="B344" t="n">
         <v>0.7726999999999997</v>
       </c>
-      <c r="B344" t="n">
+      <c r="C344" t="n">
         <v>-136.6769520000001</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
+        <v>4.440000000000003</v>
+      </c>
+      <c r="B345" t="n">
         <v>0.7715999999999996</v>
       </c>
-      <c r="B345" t="n">
+      <c r="C345" t="n">
         <v>-137.0866080000001</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
+        <v>4.450000000000003</v>
+      </c>
+      <c r="B346" t="n">
         <v>0.7704999999999997</v>
       </c>
-      <c r="B346" t="n">
+      <c r="C346" t="n">
         <v>-137.4960000000001</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
+        <v>4.460000000000003</v>
+      </c>
+      <c r="B347" t="n">
         <v>0.7693999999999998</v>
       </c>
-      <c r="B347" t="n">
+      <c r="C347" t="n">
         <v>-137.9051280000001</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
+        <v>4.470000000000003</v>
+      </c>
+      <c r="B348" t="n">
         <v>0.7682999999999996</v>
       </c>
-      <c r="B348" t="n">
+      <c r="C348" t="n">
         <v>-138.3139920000001</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
+        <v>4.480000000000003</v>
+      </c>
+      <c r="B349" t="n">
         <v>0.7671999999999997</v>
       </c>
-      <c r="B349" t="n">
+      <c r="C349" t="n">
         <v>-138.7225920000001</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
+        <v>4.490000000000003</v>
+      </c>
+      <c r="B350" t="n">
         <v>0.7660999999999997</v>
       </c>
-      <c r="B350" t="n">
+      <c r="C350" t="n">
         <v>-139.1309280000001</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
+        <v>4.500000000000003</v>
+      </c>
+      <c r="B351" t="n">
         <v>0.7649999999999997</v>
       </c>
-      <c r="B351" t="n">
+      <c r="C351" t="n">
         <v>-139.5390000000001</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
+        <v>4.510000000000003</v>
+      </c>
+      <c r="B352" t="n">
         <v>0.7638999999999997</v>
       </c>
-      <c r="B352" t="n">
+      <c r="C352" t="n">
         <v>-139.9468080000001</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
+        <v>4.520000000000003</v>
+      </c>
+      <c r="B353" t="n">
         <v>0.7627999999999997</v>
       </c>
-      <c r="B353" t="n">
+      <c r="C353" t="n">
         <v>-140.3543520000001</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
+        <v>4.530000000000003</v>
+      </c>
+      <c r="B354" t="n">
         <v>0.7616999999999997</v>
       </c>
-      <c r="B354" t="n">
+      <c r="C354" t="n">
         <v>-140.7616320000001</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
+        <v>4.540000000000003</v>
+      </c>
+      <c r="B355" t="n">
         <v>0.7605999999999997</v>
       </c>
-      <c r="B355" t="n">
+      <c r="C355" t="n">
         <v>-141.1686480000001</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
+        <v>4.550000000000003</v>
+      </c>
+      <c r="B356" t="n">
         <v>0.7594999999999996</v>
       </c>
-      <c r="B356" t="n">
+      <c r="C356" t="n">
         <v>-141.5754000000001</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
+        <v>4.560000000000003</v>
+      </c>
+      <c r="B357" t="n">
         <v>0.7583999999999996</v>
       </c>
-      <c r="B357" t="n">
+      <c r="C357" t="n">
         <v>-141.9818880000001</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
+        <v>4.570000000000003</v>
+      </c>
+      <c r="B358" t="n">
         <v>0.7572999999999996</v>
       </c>
-      <c r="B358" t="n">
+      <c r="C358" t="n">
         <v>-142.3881120000001</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
+        <v>4.580000000000003</v>
+      </c>
+      <c r="B359" t="n">
         <v>0.7561999999999998</v>
       </c>
-      <c r="B359" t="n">
+      <c r="C359" t="n">
         <v>-142.7940720000001</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
+        <v>4.590000000000003</v>
+      </c>
+      <c r="B360" t="n">
         <v>0.7550999999999997</v>
       </c>
-      <c r="B360" t="n">
+      <c r="C360" t="n">
         <v>-143.1997680000001</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
+        <v>4.600000000000003</v>
+      </c>
+      <c r="B361" t="n">
         <v>0.7539999999999997</v>
       </c>
-      <c r="B361" t="n">
+      <c r="C361" t="n">
         <v>-143.6052000000001</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
+        <v>4.610000000000003</v>
+      </c>
+      <c r="B362" t="n">
         <v>0.7528999999999997</v>
       </c>
-      <c r="B362" t="n">
+      <c r="C362" t="n">
         <v>-144.0103680000001</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
+        <v>4.620000000000003</v>
+      </c>
+      <c r="B363" t="n">
         <v>0.7517999999999997</v>
       </c>
-      <c r="B363" t="n">
+      <c r="C363" t="n">
         <v>-144.4152720000001</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
+        <v>4.630000000000003</v>
+      </c>
+      <c r="B364" t="n">
         <v>0.7506999999999997</v>
       </c>
-      <c r="B364" t="n">
+      <c r="C364" t="n">
         <v>-144.8199120000001</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
+        <v>4.640000000000003</v>
+      </c>
+      <c r="B365" t="n">
         <v>0.7495999999999996</v>
       </c>
-      <c r="B365" t="n">
+      <c r="C365" t="n">
         <v>-145.2242880000001</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
+        <v>4.650000000000003</v>
+      </c>
+      <c r="B366" t="n">
         <v>0.7484999999999997</v>
       </c>
-      <c r="B366" t="n">
+      <c r="C366" t="n">
         <v>-145.6284000000001</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
+        <v>4.660000000000003</v>
+      </c>
+      <c r="B367" t="n">
         <v>0.7473999999999997</v>
       </c>
-      <c r="B367" t="n">
+      <c r="C367" t="n">
         <v>-146.0322480000001</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
+        <v>4.670000000000003</v>
+      </c>
+      <c r="B368" t="n">
         <v>0.7462999999999996</v>
       </c>
-      <c r="B368" t="n">
+      <c r="C368" t="n">
         <v>-146.4358320000001</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
+        <v>4.680000000000003</v>
+      </c>
+      <c r="B369" t="n">
         <v>0.7451999999999996</v>
       </c>
-      <c r="B369" t="n">
+      <c r="C369" t="n">
         <v>-146.8391520000001</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
+        <v>4.690000000000003</v>
+      </c>
+      <c r="B370" t="n">
         <v>0.7440999999999997</v>
       </c>
-      <c r="B370" t="n">
+      <c r="C370" t="n">
         <v>-147.2422080000001</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
+        <v>4.700000000000003</v>
+      </c>
+      <c r="B371" t="n">
         <v>0.7429999999999997</v>
       </c>
-      <c r="B371" t="n">
+      <c r="C371" t="n">
         <v>-147.6450000000001</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
+        <v>4.710000000000004</v>
+      </c>
+      <c r="B372" t="n">
         <v>0.7418999999999996</v>
       </c>
-      <c r="B372" t="n">
+      <c r="C372" t="n">
         <v>-148.0475280000002</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
+        <v>4.720000000000003</v>
+      </c>
+      <c r="B373" t="n">
         <v>0.7407999999999997</v>
       </c>
-      <c r="B373" t="n">
+      <c r="C373" t="n">
         <v>-148.4497920000001</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
+        <v>4.730000000000003</v>
+      </c>
+      <c r="B374" t="n">
         <v>0.7396999999999997</v>
       </c>
-      <c r="B374" t="n">
+      <c r="C374" t="n">
         <v>-148.8517920000001</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
+        <v>4.740000000000003</v>
+      </c>
+      <c r="B375" t="n">
         <v>0.7385999999999997</v>
       </c>
-      <c r="B375" t="n">
+      <c r="C375" t="n">
         <v>-149.2535280000001</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
+        <v>4.750000000000004</v>
+      </c>
+      <c r="B376" t="n">
         <v>0.7374999999999996</v>
       </c>
-      <c r="B376" t="n">
+      <c r="C376" t="n">
         <v>-149.6550000000001</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
+        <v>4.760000000000003</v>
+      </c>
+      <c r="B377" t="n">
         <v>0.7363999999999996</v>
       </c>
-      <c r="B377" t="n">
+      <c r="C377" t="n">
         <v>-150.0562080000001</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
+        <v>4.770000000000003</v>
+      </c>
+      <c r="B378" t="n">
         <v>0.7352999999999996</v>
       </c>
-      <c r="B378" t="n">
+      <c r="C378" t="n">
         <v>-150.4571520000001</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
+        <v>4.780000000000003</v>
+      </c>
+      <c r="B379" t="n">
         <v>0.7341999999999997</v>
       </c>
-      <c r="B379" t="n">
+      <c r="C379" t="n">
         <v>-150.8578320000001</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
+        <v>4.790000000000004</v>
+      </c>
+      <c r="B380" t="n">
         <v>0.7330999999999996</v>
       </c>
-      <c r="B380" t="n">
+      <c r="C380" t="n">
         <v>-151.2582480000001</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
+        <v>4.800000000000003</v>
+      </c>
+      <c r="B381" t="n">
         <v>0.7319999999999997</v>
       </c>
-      <c r="B381" t="n">
+      <c r="C381" t="n">
         <v>-151.6584000000001</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
+        <v>4.810000000000003</v>
+      </c>
+      <c r="B382" t="n">
         <v>0.7308999999999997</v>
       </c>
-      <c r="B382" t="n">
+      <c r="C382" t="n">
         <v>-152.0582880000001</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
+        <v>4.820000000000003</v>
+      </c>
+      <c r="B383" t="n">
         <v>0.7297999999999997</v>
       </c>
-      <c r="B383" t="n">
+      <c r="C383" t="n">
         <v>-152.4579120000001</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
+        <v>4.830000000000004</v>
+      </c>
+      <c r="B384" t="n">
         <v>0.7286999999999997</v>
       </c>
-      <c r="B384" t="n">
+      <c r="C384" t="n">
         <v>-152.8572720000001</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
+        <v>4.840000000000003</v>
+      </c>
+      <c r="B385" t="n">
         <v>0.7275999999999996</v>
       </c>
-      <c r="B385" t="n">
+      <c r="C385" t="n">
         <v>-153.2563680000002</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
+        <v>4.850000000000003</v>
+      </c>
+      <c r="B386" t="n">
         <v>0.7264999999999997</v>
       </c>
-      <c r="B386" t="n">
+      <c r="C386" t="n">
         <v>-153.6552000000001</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
+        <v>4.860000000000003</v>
+      </c>
+      <c r="B387" t="n">
         <v>0.7253999999999997</v>
       </c>
-      <c r="B387" t="n">
+      <c r="C387" t="n">
         <v>-154.0537680000001</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
+        <v>4.870000000000004</v>
+      </c>
+      <c r="B388" t="n">
         <v>0.7242999999999996</v>
       </c>
-      <c r="B388" t="n">
+      <c r="C388" t="n">
         <v>-154.4520720000002</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
+        <v>4.880000000000003</v>
+      </c>
+      <c r="B389" t="n">
         <v>0.7231999999999996</v>
       </c>
-      <c r="B389" t="n">
+      <c r="C389" t="n">
         <v>-154.8501120000001</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
+        <v>4.890000000000003</v>
+      </c>
+      <c r="B390" t="n">
         <v>0.7220999999999996</v>
       </c>
-      <c r="B390" t="n">
+      <c r="C390" t="n">
         <v>-155.2478880000002</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
+        <v>4.900000000000003</v>
+      </c>
+      <c r="B391" t="n">
         <v>0.7209999999999996</v>
       </c>
-      <c r="B391" t="n">
+      <c r="C391" t="n">
         <v>-155.6454000000001</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
+        <v>4.910000000000004</v>
+      </c>
+      <c r="B392" t="n">
         <v>0.7198999999999995</v>
       </c>
-      <c r="B392" t="n">
+      <c r="C392" t="n">
         <v>-156.0426480000002</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
+        <v>4.920000000000003</v>
+      </c>
+      <c r="B393" t="n">
         <v>0.7187999999999997</v>
       </c>
-      <c r="B393" t="n">
+      <c r="C393" t="n">
         <v>-156.4396320000001</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
+        <v>4.930000000000003</v>
+      </c>
+      <c r="B394" t="n">
         <v>0.7176999999999997</v>
       </c>
-      <c r="B394" t="n">
+      <c r="C394" t="n">
         <v>-156.8363520000001</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
+        <v>4.940000000000003</v>
+      </c>
+      <c r="B395" t="n">
         <v>0.7165999999999997</v>
       </c>
-      <c r="B395" t="n">
+      <c r="C395" t="n">
         <v>-157.2328080000001</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
+        <v>4.950000000000004</v>
+      </c>
+      <c r="B396" t="n">
         <v>0.7154999999999996</v>
       </c>
-      <c r="B396" t="n">
+      <c r="C396" t="n">
         <v>-157.6290000000001</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
+        <v>4.960000000000004</v>
+      </c>
+      <c r="B397" t="n">
         <v>0.7143999999999996</v>
       </c>
-      <c r="B397" t="n">
+      <c r="C397" t="n">
         <v>-158.0249280000002</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
+        <v>4.970000000000003</v>
+      </c>
+      <c r="B398" t="n">
         <v>0.7132999999999996</v>
       </c>
-      <c r="B398" t="n">
+      <c r="C398" t="n">
         <v>-158.4205920000001</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
+        <v>4.980000000000003</v>
+      </c>
+      <c r="B399" t="n">
         <v>0.7121999999999997</v>
       </c>
-      <c r="B399" t="n">
+      <c r="C399" t="n">
         <v>-158.8159920000001</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
+        <v>4.990000000000004</v>
+      </c>
+      <c r="B400" t="n">
         <v>0.7110999999999996</v>
       </c>
-      <c r="B400" t="n">
+      <c r="C400" t="n">
         <v>-159.2111280000001</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
+        <v>5.000000000000004</v>
+      </c>
+      <c r="B401" t="n">
         <v>0.7099999999999996</v>
       </c>
-      <c r="B401" t="n">
+      <c r="C401" t="n">
         <v>-159.6060000000001</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
+        <v>5.010000000000003</v>
+      </c>
+      <c r="B402" t="n">
         <v>0.7088999999999996</v>
       </c>
-      <c r="B402" t="n">
+      <c r="C402" t="n">
         <v>-160.0006080000001</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
+        <v>5.020000000000003</v>
+      </c>
+      <c r="B403" t="n">
         <v>0.7077999999999997</v>
       </c>
-      <c r="B403" t="n">
+      <c r="C403" t="n">
         <v>-160.3949520000001</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
+        <v>5.030000000000003</v>
+      </c>
+      <c r="B404" t="n">
         <v>0.7066999999999997</v>
       </c>
-      <c r="B404" t="n">
+      <c r="C404" t="n">
         <v>-160.7890320000001</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
+        <v>5.040000000000004</v>
+      </c>
+      <c r="B405" t="n">
         <v>0.7055999999999996</v>
       </c>
-      <c r="B405" t="n">
+      <c r="C405" t="n">
         <v>-161.1828480000001</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
+        <v>5.050000000000003</v>
+      </c>
+      <c r="B406" t="n">
         <v>0.7044999999999997</v>
       </c>
-      <c r="B406" t="n">
+      <c r="C406" t="n">
         <v>-161.5764000000001</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
+        <v>5.060000000000003</v>
+      </c>
+      <c r="B407" t="n">
         <v>0.7033999999999997</v>
       </c>
-      <c r="B407" t="n">
+      <c r="C407" t="n">
         <v>-161.9696880000001</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
+        <v>5.070000000000004</v>
+      </c>
+      <c r="B408" t="n">
         <v>0.7022999999999996</v>
       </c>
-      <c r="B408" t="n">
+      <c r="C408" t="n">
         <v>-162.3627120000002</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
+        <v>5.080000000000004</v>
+      </c>
+      <c r="B409" t="n">
         <v>0.7011999999999996</v>
       </c>
-      <c r="B409" t="n">
+      <c r="C409" t="n">
         <v>-162.7554720000002</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
+        <v>5.090000000000003</v>
+      </c>
+      <c r="B410" t="n">
         <v>0.7000999999999996</v>
       </c>
-      <c r="B410" t="n">
+      <c r="C410" t="n">
         <v>-163.1479680000002</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
+        <v>5.100000000000003</v>
+      </c>
+      <c r="B411" t="n">
         <v>0.6989999999999996</v>
       </c>
-      <c r="B411" t="n">
+      <c r="C411" t="n">
         <v>-163.5402000000001</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
+        <v>5.110000000000003</v>
+      </c>
+      <c r="B412" t="n">
         <v>0.6978999999999996</v>
       </c>
-      <c r="B412" t="n">
+      <c r="C412" t="n">
         <v>-163.9321680000001</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
+        <v>5.120000000000004</v>
+      </c>
+      <c r="B413" t="n">
         <v>0.6967999999999996</v>
       </c>
-      <c r="B413" t="n">
+      <c r="C413" t="n">
         <v>-164.3238720000001</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
+        <v>5.130000000000003</v>
+      </c>
+      <c r="B414" t="n">
         <v>0.6956999999999997</v>
       </c>
-      <c r="B414" t="n">
+      <c r="C414" t="n">
         <v>-164.7153120000001</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
+        <v>5.140000000000003</v>
+      </c>
+      <c r="B415" t="n">
         <v>0.6945999999999997</v>
       </c>
-      <c r="B415" t="n">
+      <c r="C415" t="n">
         <v>-165.1064880000001</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
+        <v>5.150000000000004</v>
+      </c>
+      <c r="B416" t="n">
         <v>0.6934999999999996</v>
       </c>
-      <c r="B416" t="n">
+      <c r="C416" t="n">
         <v>-165.4974000000002</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
+        <v>5.160000000000004</v>
+      </c>
+      <c r="B417" t="n">
         <v>0.6923999999999996</v>
       </c>
-      <c r="B417" t="n">
+      <c r="C417" t="n">
         <v>-165.8880480000001</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
+        <v>5.170000000000003</v>
+      </c>
+      <c r="B418" t="n">
         <v>0.6912999999999996</v>
       </c>
-      <c r="B418" t="n">
+      <c r="C418" t="n">
         <v>-166.2784320000002</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
+        <v>5.180000000000003</v>
+      </c>
+      <c r="B419" t="n">
         <v>0.6901999999999997</v>
       </c>
-      <c r="B419" t="n">
+      <c r="C419" t="n">
         <v>-166.6685520000001</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
+        <v>5.190000000000003</v>
+      </c>
+      <c r="B420" t="n">
         <v>0.6890999999999997</v>
       </c>
-      <c r="B420" t="n">
+      <c r="C420" t="n">
         <v>-167.0584080000001</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
+        <v>5.200000000000004</v>
+      </c>
+      <c r="B421" t="n">
         <v>0.6879999999999996</v>
       </c>
-      <c r="B421" t="n">
+      <c r="C421" t="n">
         <v>-167.4480000000001</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
+        <v>5.210000000000004</v>
+      </c>
+      <c r="B422" t="n">
         <v>0.6868999999999996</v>
       </c>
-      <c r="B422" t="n">
+      <c r="C422" t="n">
         <v>-167.8373280000001</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
+        <v>5.220000000000003</v>
+      </c>
+      <c r="B423" t="n">
         <v>0.6857999999999996</v>
       </c>
-      <c r="B423" t="n">
+      <c r="C423" t="n">
         <v>-168.2263920000001</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
+        <v>5.230000000000004</v>
+      </c>
+      <c r="B424" t="n">
         <v>0.6846999999999995</v>
       </c>
-      <c r="B424" t="n">
+      <c r="C424" t="n">
         <v>-168.6151920000002</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
+        <v>5.240000000000004</v>
+      </c>
+      <c r="B425" t="n">
         <v>0.6835999999999995</v>
       </c>
-      <c r="B425" t="n">
+      <c r="C425" t="n">
         <v>-169.0037280000001</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
+        <v>5.250000000000004</v>
+      </c>
+      <c r="B426" t="n">
         <v>0.6824999999999997</v>
       </c>
-      <c r="B426" t="n">
+      <c r="C426" t="n">
         <v>-169.3920000000001</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
+        <v>5.260000000000003</v>
+      </c>
+      <c r="B427" t="n">
         <v>0.6813999999999997</v>
       </c>
-      <c r="B427" t="n">
+      <c r="C427" t="n">
         <v>-169.7800080000001</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
+        <v>5.270000000000003</v>
+      </c>
+      <c r="B428" t="n">
         <v>0.6802999999999997</v>
       </c>
-      <c r="B428" t="n">
+      <c r="C428" t="n">
         <v>-170.1677520000001</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
+        <v>5.280000000000004</v>
+      </c>
+      <c r="B429" t="n">
         <v>0.6791999999999996</v>
       </c>
-      <c r="B429" t="n">
+      <c r="C429" t="n">
         <v>-170.5552320000002</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
+        <v>5.290000000000004</v>
+      </c>
+      <c r="B430" t="n">
         <v>0.6780999999999996</v>
       </c>
-      <c r="B430" t="n">
+      <c r="C430" t="n">
         <v>-170.9424480000001</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
+        <v>5.300000000000003</v>
+      </c>
+      <c r="B431" t="n">
         <v>0.6769999999999996</v>
       </c>
-      <c r="B431" t="n">
+      <c r="C431" t="n">
         <v>-171.3294000000001</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
+        <v>5.310000000000004</v>
+      </c>
+      <c r="B432" t="n">
         <v>0.6758999999999995</v>
       </c>
-      <c r="B432" t="n">
+      <c r="C432" t="n">
         <v>-171.7160880000002</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
+        <v>5.320000000000004</v>
+      </c>
+      <c r="B433" t="n">
         <v>0.6747999999999996</v>
       </c>
-      <c r="B433" t="n">
+      <c r="C433" t="n">
         <v>-172.1025120000001</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
+        <v>5.330000000000004</v>
+      </c>
+      <c r="B434" t="n">
         <v>0.6736999999999996</v>
       </c>
-      <c r="B434" t="n">
+      <c r="C434" t="n">
         <v>-172.4886720000002</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
+        <v>5.340000000000003</v>
+      </c>
+      <c r="B435" t="n">
         <v>0.6725999999999996</v>
       </c>
-      <c r="B435" t="n">
+      <c r="C435" t="n">
         <v>-172.8745680000001</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
+        <v>5.350000000000003</v>
+      </c>
+      <c r="B436" t="n">
         <v>0.6714999999999997</v>
       </c>
-      <c r="B436" t="n">
+      <c r="C436" t="n">
         <v>-173.2602000000001</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
+        <v>5.360000000000004</v>
+      </c>
+      <c r="B437" t="n">
         <v>0.6703999999999996</v>
       </c>
-      <c r="B437" t="n">
+      <c r="C437" t="n">
         <v>-173.6455680000002</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
+        <v>5.370000000000004</v>
+      </c>
+      <c r="B438" t="n">
         <v>0.6692999999999996</v>
       </c>
-      <c r="B438" t="n">
+      <c r="C438" t="n">
         <v>-174.0306720000002</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
+        <v>5.380000000000003</v>
+      </c>
+      <c r="B439" t="n">
         <v>0.6681999999999996</v>
       </c>
-      <c r="B439" t="n">
+      <c r="C439" t="n">
         <v>-174.4155120000001</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
+        <v>5.390000000000004</v>
+      </c>
+      <c r="B440" t="n">
         <v>0.6670999999999996</v>
       </c>
-      <c r="B440" t="n">
+      <c r="C440" t="n">
         <v>-174.8000880000002</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
+        <v>5.400000000000004</v>
+      </c>
+      <c r="B441" t="n">
         <v>0.6659999999999996</v>
       </c>
-      <c r="B441" t="n">
+      <c r="C441" t="n">
         <v>-175.1844000000002</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
+        <v>5.410000000000004</v>
+      </c>
+      <c r="B442" t="n">
         <v>0.6648999999999996</v>
       </c>
-      <c r="B442" t="n">
+      <c r="C442" t="n">
         <v>-175.5684480000002</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
+        <v>5.420000000000003</v>
+      </c>
+      <c r="B443" t="n">
         <v>0.6637999999999996</v>
       </c>
-      <c r="B443" t="n">
+      <c r="C443" t="n">
         <v>-175.9522320000002</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
+        <v>5.430000000000003</v>
+      </c>
+      <c r="B444" t="n">
         <v>0.6626999999999996</v>
       </c>
-      <c r="B444" t="n">
+      <c r="C444" t="n">
         <v>-176.3357520000001</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
+        <v>5.440000000000004</v>
+      </c>
+      <c r="B445" t="n">
         <v>0.6615999999999995</v>
       </c>
-      <c r="B445" t="n">
+      <c r="C445" t="n">
         <v>-176.7190080000001</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
+        <v>5.450000000000004</v>
+      </c>
+      <c r="B446" t="n">
         <v>0.6604999999999995</v>
       </c>
-      <c r="B446" t="n">
+      <c r="C446" t="n">
         <v>-177.1020000000001</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
+        <v>5.460000000000004</v>
+      </c>
+      <c r="B447" t="n">
         <v>0.6593999999999997</v>
       </c>
-      <c r="B447" t="n">
+      <c r="C447" t="n">
         <v>-177.4847280000001</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
+        <v>5.470000000000004</v>
+      </c>
+      <c r="B448" t="n">
         <v>0.6582999999999996</v>
       </c>
-      <c r="B448" t="n">
+      <c r="C448" t="n">
         <v>-177.8671920000002</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
+        <v>5.480000000000004</v>
+      </c>
+      <c r="B449" t="n">
         <v>0.6571999999999996</v>
       </c>
-      <c r="B449" t="n">
+      <c r="C449" t="n">
         <v>-178.2493920000002</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
+        <v>5.490000000000004</v>
+      </c>
+      <c r="B450" t="n">
         <v>0.6560999999999996</v>
       </c>
-      <c r="B450" t="n">
+      <c r="C450" t="n">
         <v>-178.6313280000002</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
+        <v>5.500000000000004</v>
+      </c>
+      <c r="B451" t="n">
         <v>0.6549999999999996</v>
       </c>
-      <c r="B451" t="n">
+      <c r="C451" t="n">
         <v>-179.0130000000001</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
+        <v>5.510000000000003</v>
+      </c>
+      <c r="B452" t="n">
         <v>0.6538999999999996</v>
       </c>
-      <c r="B452" t="n">
+      <c r="C452" t="n">
         <v>-179.3944080000001</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
+        <v>5.520000000000004</v>
+      </c>
+      <c r="B453" t="n">
         <v>0.6527999999999996</v>
       </c>
-      <c r="B453" t="n">
+      <c r="C453" t="n">
         <v>-179.7755520000001</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
+        <v>5.530000000000004</v>
+      </c>
+      <c r="B454" t="n">
         <v>0.6516999999999996</v>
       </c>
-      <c r="B454" t="n">
+      <c r="C454" t="n">
         <v>-180.1564320000001</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
+        <v>5.540000000000004</v>
+      </c>
+      <c r="B455" t="n">
         <v>0.6505999999999996</v>
       </c>
-      <c r="B455" t="n">
+      <c r="C455" t="n">
         <v>-180.5370480000001</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
+        <v>5.550000000000004</v>
+      </c>
+      <c r="B456" t="n">
         <v>0.6494999999999995</v>
       </c>
-      <c r="B456" t="n">
+      <c r="C456" t="n">
         <v>-180.9174000000002</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
+        <v>5.560000000000004</v>
+      </c>
+      <c r="B457" t="n">
         <v>0.6483999999999995</v>
       </c>
-      <c r="B457" t="n">
+      <c r="C457" t="n">
         <v>-181.2974880000002</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
+        <v>5.570000000000004</v>
+      </c>
+      <c r="B458" t="n">
         <v>0.6472999999999995</v>
       </c>
-      <c r="B458" t="n">
+      <c r="C458" t="n">
         <v>-181.6773120000002</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
+        <v>5.580000000000004</v>
+      </c>
+      <c r="B459" t="n">
         <v>0.6461999999999996</v>
       </c>
-      <c r="B459" t="n">
+      <c r="C459" t="n">
         <v>-182.0568720000002</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
+        <v>5.590000000000003</v>
+      </c>
+      <c r="B460" t="n">
         <v>0.6450999999999996</v>
       </c>
-      <c r="B460" t="n">
+      <c r="C460" t="n">
         <v>-182.4361680000002</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
+        <v>5.600000000000004</v>
+      </c>
+      <c r="B461" t="n">
         <v>0.6439999999999996</v>
       </c>
-      <c r="B461" t="n">
+      <c r="C461" t="n">
         <v>-182.8152000000001</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
+        <v>5.610000000000004</v>
+      </c>
+      <c r="B462" t="n">
         <v>0.6428999999999996</v>
       </c>
-      <c r="B462" t="n">
+      <c r="C462" t="n">
         <v>-183.1939680000001</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
+        <v>5.620000000000004</v>
+      </c>
+      <c r="B463" t="n">
         <v>0.6417999999999996</v>
       </c>
-      <c r="B463" t="n">
+      <c r="C463" t="n">
         <v>-183.5724720000001</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
+        <v>5.630000000000004</v>
+      </c>
+      <c r="B464" t="n">
         <v>0.6406999999999995</v>
       </c>
-      <c r="B464" t="n">
+      <c r="C464" t="n">
         <v>-183.9507120000002</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
+        <v>5.640000000000004</v>
+      </c>
+      <c r="B465" t="n">
         <v>0.6395999999999995</v>
       </c>
-      <c r="B465" t="n">
+      <c r="C465" t="n">
         <v>-184.3286880000002</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
+        <v>5.650000000000004</v>
+      </c>
+      <c r="B466" t="n">
         <v>0.6384999999999995</v>
       </c>
-      <c r="B466" t="n">
+      <c r="C466" t="n">
         <v>-184.7064000000002</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
+        <v>5.660000000000004</v>
+      </c>
+      <c r="B467" t="n">
         <v>0.6373999999999995</v>
       </c>
-      <c r="B467" t="n">
+      <c r="C467" t="n">
         <v>-185.0838480000002</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
+        <v>5.670000000000003</v>
+      </c>
+      <c r="B468" t="n">
         <v>0.6362999999999996</v>
       </c>
-      <c r="B468" t="n">
+      <c r="C468" t="n">
         <v>-185.4610320000001</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
+        <v>5.680000000000004</v>
+      </c>
+      <c r="B469" t="n">
         <v>0.6351999999999995</v>
       </c>
-      <c r="B469" t="n">
+      <c r="C469" t="n">
         <v>-185.8379520000001</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
+        <v>5.690000000000004</v>
+      </c>
+      <c r="B470" t="n">
         <v>0.6340999999999996</v>
       </c>
-      <c r="B470" t="n">
+      <c r="C470" t="n">
         <v>-186.2146080000002</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
+        <v>5.700000000000004</v>
+      </c>
+      <c r="B471" t="n">
         <v>0.6329999999999996</v>
       </c>
-      <c r="B471" t="n">
+      <c r="C471" t="n">
         <v>-186.5910000000001</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
+        <v>5.710000000000004</v>
+      </c>
+      <c r="B472" t="n">
         <v>0.6318999999999995</v>
       </c>
-      <c r="B472" t="n">
+      <c r="C472" t="n">
         <v>-186.9671280000002</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
+        <v>5.720000000000004</v>
+      </c>
+      <c r="B473" t="n">
         <v>0.6307999999999995</v>
       </c>
-      <c r="B473" t="n">
+      <c r="C473" t="n">
         <v>-187.3429920000002</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
+        <v>5.730000000000004</v>
+      </c>
+      <c r="B474" t="n">
         <v>0.6296999999999996</v>
       </c>
-      <c r="B474" t="n">
+      <c r="C474" t="n">
         <v>-187.7185920000002</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
+        <v>5.740000000000004</v>
+      </c>
+      <c r="B475" t="n">
         <v>0.6285999999999996</v>
       </c>
-      <c r="B475" t="n">
+      <c r="C475" t="n">
         <v>-188.0939280000001</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
+        <v>5.750000000000004</v>
+      </c>
+      <c r="B476" t="n">
         <v>0.6274999999999996</v>
       </c>
-      <c r="B476" t="n">
+      <c r="C476" t="n">
         <v>-188.4690000000001</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
+        <v>5.760000000000004</v>
+      </c>
+      <c r="B477" t="n">
         <v>0.6263999999999995</v>
       </c>
-      <c r="B477" t="n">
+      <c r="C477" t="n">
         <v>-188.8438080000002</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
+        <v>5.770000000000004</v>
+      </c>
+      <c r="B478" t="n">
         <v>0.6252999999999995</v>
       </c>
-      <c r="B478" t="n">
+      <c r="C478" t="n">
         <v>-189.2183520000002</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
+        <v>5.780000000000004</v>
+      </c>
+      <c r="B479" t="n">
         <v>0.6241999999999995</v>
       </c>
-      <c r="B479" t="n">
+      <c r="C479" t="n">
         <v>-189.5926320000002</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
+        <v>5.790000000000004</v>
+      </c>
+      <c r="B480" t="n">
         <v>0.6230999999999995</v>
       </c>
-      <c r="B480" t="n">
+      <c r="C480" t="n">
         <v>-189.9666480000002</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
+        <v>5.800000000000004</v>
+      </c>
+      <c r="B481" t="n">
         <v>0.6219999999999996</v>
       </c>
-      <c r="B481" t="n">
+      <c r="C481" t="n">
         <v>-190.3404000000002</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
+        <v>5.810000000000004</v>
+      </c>
+      <c r="B482" t="n">
         <v>0.6208999999999996</v>
       </c>
-      <c r="B482" t="n">
+      <c r="C482" t="n">
         <v>-190.7138880000001</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
+        <v>5.820000000000004</v>
+      </c>
+      <c r="B483" t="n">
         <v>0.6197999999999996</v>
       </c>
-      <c r="B483" t="n">
+      <c r="C483" t="n">
         <v>-191.0871120000002</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
+        <v>5.830000000000004</v>
+      </c>
+      <c r="B484" t="n">
         <v>0.6186999999999996</v>
       </c>
-      <c r="B484" t="n">
+      <c r="C484" t="n">
         <v>-191.4600720000001</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
+        <v>5.840000000000004</v>
+      </c>
+      <c r="B485" t="n">
         <v>0.6175999999999995</v>
       </c>
-      <c r="B485" t="n">
+      <c r="C485" t="n">
         <v>-191.8327680000002</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
+        <v>5.850000000000004</v>
+      </c>
+      <c r="B486" t="n">
         <v>0.6164999999999995</v>
       </c>
-      <c r="B486" t="n">
+      <c r="C486" t="n">
         <v>-192.2052000000002</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
+        <v>5.860000000000004</v>
+      </c>
+      <c r="B487" t="n">
         <v>0.6153999999999995</v>
       </c>
-      <c r="B487" t="n">
+      <c r="C487" t="n">
         <v>-192.5773680000001</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
+        <v>5.870000000000005</v>
+      </c>
+      <c r="B488" t="n">
         <v>0.6142999999999995</v>
       </c>
-      <c r="B488" t="n">
+      <c r="C488" t="n">
         <v>-192.9492720000002</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
+        <v>5.880000000000004</v>
+      </c>
+      <c r="B489" t="n">
         <v>0.6131999999999995</v>
       </c>
-      <c r="B489" t="n">
+      <c r="C489" t="n">
         <v>-193.3209120000002</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
+        <v>5.890000000000004</v>
+      </c>
+      <c r="B490" t="n">
         <v>0.6120999999999995</v>
       </c>
-      <c r="B490" t="n">
+      <c r="C490" t="n">
         <v>-193.6922880000002</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
+        <v>5.900000000000004</v>
+      </c>
+      <c r="B491" t="n">
         <v>0.6109999999999995</v>
       </c>
-      <c r="B491" t="n">
+      <c r="C491" t="n">
         <v>-194.0634000000002</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
+        <v>5.910000000000004</v>
+      </c>
+      <c r="B492" t="n">
         <v>0.6098999999999996</v>
       </c>
-      <c r="B492" t="n">
+      <c r="C492" t="n">
         <v>-194.4342480000001</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
+        <v>5.920000000000004</v>
+      </c>
+      <c r="B493" t="n">
         <v>0.6087999999999995</v>
       </c>
-      <c r="B493" t="n">
+      <c r="C493" t="n">
         <v>-194.8048320000002</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
+        <v>5.930000000000004</v>
+      </c>
+      <c r="B494" t="n">
         <v>0.6076999999999996</v>
       </c>
-      <c r="B494" t="n">
+      <c r="C494" t="n">
         <v>-195.1751520000001</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
+        <v>5.940000000000004</v>
+      </c>
+      <c r="B495" t="n">
         <v>0.6065999999999996</v>
       </c>
-      <c r="B495" t="n">
+      <c r="C495" t="n">
         <v>-195.5452080000002</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
+        <v>5.950000000000005</v>
+      </c>
+      <c r="B496" t="n">
         <v>0.6054999999999995</v>
       </c>
-      <c r="B496" t="n">
+      <c r="C496" t="n">
         <v>-195.9150000000001</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
+        <v>5.960000000000004</v>
+      </c>
+      <c r="B497" t="n">
         <v>0.6043999999999995</v>
       </c>
-      <c r="B497" t="n">
+      <c r="C497" t="n">
         <v>-196.2845280000002</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
+        <v>5.970000000000004</v>
+      </c>
+      <c r="B498" t="n">
         <v>0.6032999999999995</v>
       </c>
-      <c r="B498" t="n">
+      <c r="C498" t="n">
         <v>-196.6537920000002</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
+        <v>5.980000000000004</v>
+      </c>
+      <c r="B499" t="n">
         <v>0.6021999999999995</v>
       </c>
-      <c r="B499" t="n">
+      <c r="C499" t="n">
         <v>-197.0227920000002</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
+        <v>5.990000000000004</v>
+      </c>
+      <c r="B500" t="n">
         <v>0.6010999999999995</v>
       </c>
-      <c r="B500" t="n">
+      <c r="C500" t="n">
         <v>-197.3915280000002</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
+        <v>6.000000000000004</v>
+      </c>
+      <c r="B501" t="n">
         <v>0.5999999999999995</v>
       </c>
-      <c r="B501" t="n">
+      <c r="C501" t="n">
         <v>-197.7600000000001</v>
       </c>
     </row>
